--- a/biology/Zoologie/Calycopis/Calycopis.xlsx
+++ b/biology/Zoologie/Calycopis/Calycopis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycopis est un genre d'insectes lépidoptères de sous-famille des Theclinae (famille des Lycaenidae). Ces espèces se rencontrent en Amérique du Sud et dans le Sud de l'Amérique du Nord.
 La taxinomie des insectes est en pleine évolution voire révolution, et les différentes classifications sont très disparates notamment concernant les sections situées entre les ordres et les genres.
@@ -512,12 +524,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Calycopis anastasia Field, 1967 - Bolivie
 Calycopis anfracta (Druce, 1907) -  Pérou
-Calycopis atnius (Herrich-Schäffer, [1853]) - partie amazonienne de l'Amérique du Sud
+Calycopis atnius (Herrich-Schäffer, ) - partie amazonienne de l'Amérique du Sud
 Calycopis anthora (Hewitson, 1877) - Brésil
 Calycopis bactra (Hewitson, 1877) - Nicaragua
 Calycopis barza (Field, 1967) - Pérou
@@ -526,7 +540,7 @@
 Calycopis boliviensis (Johnson, 1991) - Bolivie
 Calycopis buphonia (Hewitson, 1868) - Brésil, Colombie
 Calycopis calor (Druce, 1907) - Brésil, Argentine
-Calycopis calus (Godart, [1824]) - Colombie, Guyane
+Calycopis calus (Godart, ) - Colombie, Guyane
 Calycopis caesaries (Druce, 1907) - Colombie, Guyane
 Calycopis caulonia (Hewitson, 1877) - Sud de l'Amérique du Sud
 Calycopis cecrops (Edwards, 1862) - Est des États-Unis
@@ -550,25 +564,25 @@
 Calycopis johnsoni (Salazar, 2000) - Colombie
 Calycopis lerbela Field, 1967 - Brésil, Guyane
 Calycopis malta (Schaus, 1902) - Brésil, Pérou
-Calycopis matho (Godman &amp; Salvin, [1887]) - Amérique du Sud
+Calycopis matho (Godman &amp; Salvin, ) - Amérique du Sud
 Calycopis meleager (Druce, 1907) - Surinam
-Calycopis mimas (Godman &amp; Salvin, [1887]) - Brésil, Colombie, Panama
+Calycopis mimas (Godman &amp; Salvin, ) - Brésil, Colombie, Panama
 Calycopis mirna Robbins &amp; Duarte, 2002 - Argentine, Sud du Brésil
 Calycopis naka (Field, 1967) - Pérou
 Calycopis nicolayi Field, 1967 - Brésil
 Calycopis orcilla (Hewitson, 1874) - Bolivie, Colombie, Équateur
 Calycopis orcillula (Strand, 1916) - Costa Rica
-Calycopis origo (Godman &amp; Salvin, [1887]) - Brésil, Guyane
+Calycopis origo (Godman &amp; Salvin, ) - Brésil, Guyane
 Calycopis partunda (Hewitson, 1877) - Brésil
 Calycopis petaurister (Druce, 1907) - Guyane
-Calycopis pisis (Godman &amp; Salvin, [1887]) - Costa Rica, Équateur, Panama
+Calycopis pisis (Godman &amp; Salvin, ) - Costa Rica, Équateur, Panama
 Calycopis plumans (Druce, 1907) - Brésil
-Calycopis puppius (Godman &amp; Salvin, [1887]) - Brésil, Guyane
+Calycopis puppius (Godman &amp; Salvin, ) - Brésil, Guyane
 Calycopis spadectis (Johnson &amp; Kroenlein, 1993) - Équateur
 Calycopis suda (Draudt, 1920) - Bolivie
 Calycopis sullivani Robbins &amp; Duarte, 2005 - Colombie, Guyane
 Calycopis talama (Schaus, 1902) - Sud du Brésil
-Calycopis tamos (Godman &amp; Salvin, [1887]) - Costa Rica, Panama
+Calycopis tamos (Godman &amp; Salvin, ) - Costa Rica, Panama
 Calycopis thama (Hewitson, 1877) - Colombie
 Calycopis tifla (Field, 1967) - Pérou
 Calycopis torqueor (Druce, 1907) - Guyane
@@ -607,9 +621,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Calycopis Scudder, 1876[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Calycopis Scudder, 1876.
 </t>
         </is>
       </c>
